--- a/SIGVerse/dataset/similar/3LDK/3LDK_05/position/3LDK_5_position.xlsx
+++ b/SIGVerse/dataset/similar/3LDK/3LDK_05/position/3LDK_5_position.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akira\Dropbox\SpCoNavi\CoRL\dataset\similar\dataset_D\3LDK_5\position\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akira\Dropbox\SpCoSLAM\SpCoTMHP\SIGVerse\dataset\similar\3LDK\3LDK_05\position\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>index</t>
   </si>
@@ -37,6 +37,50 @@
   </si>
   <si>
     <t>cos</t>
+  </si>
+  <si>
+    <t>玄関</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンカン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>⇒</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>廊下</t>
+    <rPh sb="0" eb="2">
+      <t>ロウカ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>きいろ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>新規</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>⇒</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>広場</t>
+    <rPh sb="0" eb="2">
+      <t>ヒロバ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>みどり</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -809,7 +853,7 @@
                   <c:v>6.15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.22</c:v>
+                  <c:v>6.22</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>5.92</c:v>
@@ -1424,7 +1468,7 @@
                   <c:v>-2.85</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.19</c:v>
+                  <c:v>-3.19</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>-3.42</c:v>
@@ -1706,11 +1750,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="441774416"/>
-        <c:axId val="712007712"/>
+        <c:axId val="332070144"/>
+        <c:axId val="331840664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="441774416"/>
+        <c:axId val="332070144"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1767,12 +1811,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="712007712"/>
+        <c:crossAx val="331840664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="712007712"/>
+        <c:axId val="331840664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1829,7 +1873,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441774416"/>
+        <c:crossAx val="332070144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2508,6 +2552,927 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10534650" y="685800"/>
+          <a:ext cx="5562600" cy="3324225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="円/楕円 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10934700" y="2505074"/>
+          <a:ext cx="2552700" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="上下矢印 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12896849" y="2800350"/>
+          <a:ext cx="238125" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="上下矢印 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15249524" y="2838450"/>
+          <a:ext cx="238125" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="上下矢印 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11849100" y="2152650"/>
+          <a:ext cx="238125" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="上下矢印 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12611100" y="2095500"/>
+          <a:ext cx="238125" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="上下矢印 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="11601450" y="3143250"/>
+          <a:ext cx="238125" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="上下矢印 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="11401425" y="2457450"/>
+          <a:ext cx="238125" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="上下矢印 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="14420850" y="3181350"/>
+          <a:ext cx="238125" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="乗算記号 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10629900" y="2219325"/>
+          <a:ext cx="752475" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8330"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="円/楕円 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13706475" y="2143124"/>
+          <a:ext cx="847725" cy="933451"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="上下矢印 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14135100" y="1762125"/>
+          <a:ext cx="238125" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="上下矢印 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13811250" y="2857500"/>
+          <a:ext cx="238125" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="上下矢印 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="14725650" y="2505075"/>
+          <a:ext cx="238125" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="上下矢印 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="13477875" y="2400300"/>
+          <a:ext cx="238125" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>390523</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="上下矢印 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2595852">
+          <a:off x="11363323" y="2895601"/>
+          <a:ext cx="247651" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="上下矢印 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19094056">
+          <a:off x="11810999" y="2895601"/>
+          <a:ext cx="247651" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2774,10 +3739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:R151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40:M40"/>
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2970,7 +3935,7 @@
         <v>172.73</v>
       </c>
       <c r="C10">
-        <v>3.22</v>
+        <v>6.22</v>
       </c>
       <c r="D10">
         <v>-0.82</v>
@@ -3102,7 +4067,7 @@
         <v>0.99211470130000001</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3122,7 +4087,7 @@
         <v>-0.52368856529999996</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3142,7 +4107,7 @@
         <v>-0.63284047590000003</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3162,7 +4127,7 @@
         <v>-0.67726129639999999</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3182,7 +4147,7 @@
         <v>-0.86401130290000006</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3202,7 +4167,7 @@
         <v>-0.44056600410000002</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3222,7 +4187,7 @@
         <v>-0.21115420200000001</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3242,7 +4207,7 @@
         <v>-0.2631995976</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3262,7 +4227,7 @@
         <v>-0.30070579949999998</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3282,7 +4247,7 @@
         <v>-0.34709933879999999</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3301,8 +4266,17 @@
       <c r="F26">
         <v>0.26202074749999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="P26" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>7</v>
+      </c>
+      <c r="R26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3321,8 +4295,11 @@
       <c r="F27">
         <v>3.5771616300000003E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="R27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3342,7 +4319,7 @@
         <v>-0.1628093719</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3361,8 +4338,17 @@
       <c r="F29">
         <v>-3.6818123899999999E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="P29" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>11</v>
+      </c>
+      <c r="R29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3381,8 +4367,11 @@
       <c r="F30">
         <v>0.2038126237</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="R30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3402,7 +4391,7 @@
         <v>0.31564903690000001</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4013,7 +5002,7 @@
         <v>-0.54</v>
       </c>
       <c r="D62">
-        <v>3.19</v>
+        <v>-3.19</v>
       </c>
       <c r="E62">
         <v>-0.4118324733</v>
@@ -5804,7 +6793,41 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
+  <conditionalFormatting sqref="C1:D1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E55CFA17-D032-4FD8-8F99-16D2B0D543F0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E55CFA17-D032-4FD8-8F99-16D2B0D543F0}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C1:D1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/SIGVerse/dataset/similar/3LDK/3LDK_05/position/3LDK_5_position.xlsx
+++ b/SIGVerse/dataset/similar/3LDK/3LDK_05/position/3LDK_5_position.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="3LDK_5_position" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -50,13 +50,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>廊下</t>
-    <rPh sb="0" eb="2">
-      <t>ロウカ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>きいろ</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -80,6 +73,16 @@
   </si>
   <si>
     <t>みどり</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>玄関 廊下</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ロウカ</t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -673,8 +676,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -824,54 +830,54 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'3LDK_5_position'!$C$2:$C$151</c:f>
+              <c:f>'3LDK_5_position'!$C$2:$C$166</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="150"/>
+                <c:ptCount val="165"/>
                 <c:pt idx="0">
-                  <c:v>5.52</c:v>
+                  <c:v>-0.55199999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.17</c:v>
+                  <c:v>5.5529999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.37</c:v>
+                  <c:v>1.274</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.57</c:v>
+                  <c:v>1.9710000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.65</c:v>
+                  <c:v>2.66</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>6.57</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.15</c:v>
+                  <c:v>3.69</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.22</c:v>
+                  <c:v>4.3539999999999992</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.92</c:v>
+                  <c:v>4.7359999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.57</c:v>
+                  <c:v>0.55700000000000005</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>5.71</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.96</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.9</c:v>
+                  <c:v>2.95</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>6.61</c:v>
@@ -1277,16 +1283,61 @@
                 </c:pt>
                 <c:pt idx="149">
                   <c:v>4.2300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-1.6799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-1.6900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-1.79</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-1.9400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-2.38</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-2.7300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-2.99</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-3.2199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-3.1799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-3.2199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-3.3099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-3.13</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-2.8099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-2.5099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-2.3099999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'3LDK_5_position'!$D$2:$D$151</c:f>
+              <c:f>'3LDK_5_position'!$D$2:$D$166</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="150"/>
+                <c:ptCount val="165"/>
                 <c:pt idx="0">
                   <c:v>-0.43</c:v>
                 </c:pt>
@@ -1736,6 +1787,51 @@
                 </c:pt>
                 <c:pt idx="149">
                   <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-1.03</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-0.61</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-0.38</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-0.82</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-1.28</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-1.1599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-1.35</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-1.27</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-1.44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2655,7 +2751,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3739,15 +3838,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R151"/>
+  <dimension ref="A1:Z166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3766,8 +3865,18 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="X1">
+        <v>5.52</v>
+      </c>
+      <c r="Y1">
+        <v>-0.1</v>
+      </c>
+      <c r="Z1">
+        <f>X1*Y1</f>
+        <v>-0.55199999999999994</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3775,7 +3884,7 @@
         <v>157.06</v>
       </c>
       <c r="C2">
-        <v>5.52</v>
+        <v>-0.55199999999999994</v>
       </c>
       <c r="D2">
         <v>-0.43</v>
@@ -3786,8 +3895,18 @@
       <c r="F2">
         <v>0.92091352130000004</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="X2">
+        <v>5.98</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" ref="Z2:Z15" si="0">X2*Y2</f>
+        <v>5.98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3806,8 +3925,18 @@
       <c r="F3">
         <v>0.99706612699999997</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="X3">
+        <v>6.17</v>
+      </c>
+      <c r="Y3">
+        <v>0.9</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="0"/>
+        <v>5.5529999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3815,7 +3944,7 @@
         <v>146.34</v>
       </c>
       <c r="C4">
-        <v>6.17</v>
+        <v>5.5529999999999999</v>
       </c>
       <c r="D4">
         <v>-0.45</v>
@@ -3826,8 +3955,18 @@
       <c r="F4">
         <v>0.8323412738</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="X4">
+        <v>6.37</v>
+      </c>
+      <c r="Y4">
+        <v>0.2</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="0"/>
+        <v>1.274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3835,7 +3974,7 @@
         <v>153.44</v>
       </c>
       <c r="C5">
-        <v>6.37</v>
+        <v>1.274</v>
       </c>
       <c r="D5">
         <v>-0.49</v>
@@ -3846,8 +3985,18 @@
       <c r="F5">
         <v>0.89446661370000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="X5">
+        <v>6.57</v>
+      </c>
+      <c r="Y5">
+        <v>0.3</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="0"/>
+        <v>1.9710000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3855,7 +4004,7 @@
         <v>80.95</v>
       </c>
       <c r="C6">
-        <v>6.57</v>
+        <v>1.9710000000000001</v>
       </c>
       <c r="D6">
         <v>-0.46</v>
@@ -3866,8 +4015,18 @@
       <c r="F6">
         <v>-0.15729632599999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="X6">
+        <v>6.65</v>
+      </c>
+      <c r="Y6">
+        <v>0.4</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="0"/>
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3875,7 +4034,7 @@
         <v>83.33</v>
       </c>
       <c r="C7">
-        <v>6.65</v>
+        <v>2.66</v>
       </c>
       <c r="D7">
         <v>-0.82</v>
@@ -3886,8 +4045,18 @@
       <c r="F7">
         <v>-0.1161506982</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="X7">
+        <v>6.57</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="0"/>
+        <v>6.57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3906,8 +4075,18 @@
       <c r="F8">
         <v>-0.1493627706</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="X8">
+        <v>6.15</v>
+      </c>
+      <c r="Y8">
+        <v>0.6</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="0"/>
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3915,7 +4094,7 @@
         <v>177.6</v>
       </c>
       <c r="C9">
-        <v>6.15</v>
+        <v>3.69</v>
       </c>
       <c r="D9">
         <v>-1.07</v>
@@ -3926,8 +4105,18 @@
       <c r="F9">
         <v>0.99912283010000003</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="X9">
+        <v>6.22</v>
+      </c>
+      <c r="Y9">
+        <v>0.7</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="0"/>
+        <v>4.3539999999999992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3935,7 +4124,7 @@
         <v>172.73</v>
       </c>
       <c r="C10">
-        <v>6.22</v>
+        <v>4.3539999999999992</v>
       </c>
       <c r="D10">
         <v>-0.82</v>
@@ -3946,8 +4135,18 @@
       <c r="F10">
         <v>0.99196083749999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="X10">
+        <v>5.92</v>
+      </c>
+      <c r="Y10">
+        <v>0.8</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="0"/>
+        <v>4.7359999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3955,7 +4154,7 @@
         <v>168.98</v>
       </c>
       <c r="C11">
-        <v>5.92</v>
+        <v>4.7359999999999998</v>
       </c>
       <c r="D11">
         <v>-0.8</v>
@@ -3966,8 +4165,18 @@
       <c r="F11">
         <v>0.98156051870000005</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="X11">
+        <v>5.57</v>
+      </c>
+      <c r="Y11">
+        <v>0.1</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="0"/>
+        <v>0.55700000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3975,7 +4184,7 @@
         <v>176.39</v>
       </c>
       <c r="C12">
-        <v>5.57</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="D12">
         <v>-0.82</v>
@@ -3986,8 +4195,18 @@
       <c r="F12">
         <v>0.99801575419999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="X12">
+        <v>5.71</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="0"/>
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4006,8 +4225,18 @@
       <c r="F13">
         <v>0.60083885690000005</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="X13">
+        <v>5.96</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="0"/>
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4015,7 +4244,7 @@
         <v>-164.28</v>
       </c>
       <c r="C14">
-        <v>5.96</v>
+        <v>0.96</v>
       </c>
       <c r="D14">
         <v>-1.8</v>
@@ -4026,8 +4255,18 @@
       <c r="F14">
         <v>0.9625972304</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="X14">
+        <v>5.9</v>
+      </c>
+      <c r="Y14">
+        <v>0.5</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="0"/>
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4035,7 +4274,7 @@
         <v>-172.83</v>
       </c>
       <c r="C15">
-        <v>5.9</v>
+        <v>2.95</v>
       </c>
       <c r="D15">
         <v>-1.43</v>
@@ -4046,8 +4285,18 @@
       <c r="F15">
         <v>0.99218018959999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="X15">
+        <v>6.4</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4055,7 +4304,7 @@
         <v>-172.8</v>
       </c>
       <c r="C16">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>-1.49</v>
@@ -4273,7 +4522,7 @@
         <v>7</v>
       </c>
       <c r="R26" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.15">
@@ -4296,7 +4545,7 @@
         <v>3.5771616300000003E-2</v>
       </c>
       <c r="R27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.15">
@@ -4339,13 +4588,13 @@
         <v>-3.6818123899999999E-2</v>
       </c>
       <c r="P29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q29" t="s">
         <v>10</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="R29" t="s">
         <v>11</v>
-      </c>
-      <c r="R29" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.15">
@@ -4368,7 +4617,7 @@
         <v>0.2038126237</v>
       </c>
       <c r="R30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.15">
@@ -6651,7 +6900,7 @@
         <v>0.88741344710000003</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>143</v>
       </c>
@@ -6671,7 +6920,7 @@
         <v>0.86349239700000002</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>144</v>
       </c>
@@ -6691,7 +6940,7 @@
         <v>0.65803260350000004</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>145</v>
       </c>
@@ -6711,7 +6960,7 @@
         <v>0.41135528249999997</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>146</v>
       </c>
@@ -6731,7 +6980,7 @@
         <v>0.29887424130000001</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>147</v>
       </c>
@@ -6751,7 +7000,7 @@
         <v>0.61648634049999995</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>148</v>
       </c>
@@ -6771,7 +7020,7 @@
         <v>0.80468660609999998</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>149</v>
       </c>
@@ -6789,11 +7038,399 @@
       </c>
       <c r="F151">
         <v>0.92274002290000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="C152">
+        <v>-1.6799999999999997</v>
+      </c>
+      <c r="D152">
+        <v>-1.03</v>
+      </c>
+      <c r="H152">
+        <v>-4.68</v>
+      </c>
+      <c r="I152">
+        <v>-1.03</v>
+      </c>
+      <c r="J152">
+        <v>3</v>
+      </c>
+      <c r="K152">
+        <f>H152+J152</f>
+        <v>-1.6799999999999997</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="C153">
+        <v>-1.6900000000000004</v>
+      </c>
+      <c r="D153">
+        <v>-0.61</v>
+      </c>
+      <c r="H153">
+        <v>-4.6900000000000004</v>
+      </c>
+      <c r="I153">
+        <v>-0.61</v>
+      </c>
+      <c r="J153">
+        <v>3</v>
+      </c>
+      <c r="K153">
+        <f t="shared" ref="K153:K166" si="1">H153+J153</f>
+        <v>-1.6900000000000004</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="C154">
+        <v>-1.79</v>
+      </c>
+      <c r="D154">
+        <v>-0.05</v>
+      </c>
+      <c r="H154">
+        <v>-4.79</v>
+      </c>
+      <c r="I154">
+        <v>-0.05</v>
+      </c>
+      <c r="J154">
+        <v>3</v>
+      </c>
+      <c r="K154">
+        <f t="shared" si="1"/>
+        <v>-1.79</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="C155">
+        <v>-1.9400000000000004</v>
+      </c>
+      <c r="D155">
+        <v>0.35</v>
+      </c>
+      <c r="H155">
+        <v>-4.9400000000000004</v>
+      </c>
+      <c r="I155">
+        <v>0.35</v>
+      </c>
+      <c r="J155">
+        <v>3</v>
+      </c>
+      <c r="K155">
+        <f t="shared" si="1"/>
+        <v>-1.9400000000000004</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="C156">
+        <v>-2.38</v>
+      </c>
+      <c r="D156">
+        <v>0.22</v>
+      </c>
+      <c r="H156">
+        <v>-5.38</v>
+      </c>
+      <c r="I156">
+        <v>0.22</v>
+      </c>
+      <c r="J156">
+        <v>3</v>
+      </c>
+      <c r="K156">
+        <f t="shared" si="1"/>
+        <v>-2.38</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="C157">
+        <v>-2.7300000000000004</v>
+      </c>
+      <c r="D157">
+        <v>0.27</v>
+      </c>
+      <c r="H157">
+        <v>-5.73</v>
+      </c>
+      <c r="I157">
+        <v>0.27</v>
+      </c>
+      <c r="J157">
+        <v>3</v>
+      </c>
+      <c r="K157">
+        <f t="shared" si="1"/>
+        <v>-2.7300000000000004</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="C158">
+        <v>-2.99</v>
+      </c>
+      <c r="D158">
+        <v>0.24</v>
+      </c>
+      <c r="H158">
+        <v>-5.99</v>
+      </c>
+      <c r="I158">
+        <v>0.24</v>
+      </c>
+      <c r="J158">
+        <v>3</v>
+      </c>
+      <c r="K158">
+        <f t="shared" si="1"/>
+        <v>-2.99</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="C159">
+        <v>-3.2199999999999998</v>
+      </c>
+      <c r="D159">
+        <v>0.1</v>
+      </c>
+      <c r="H159">
+        <v>-6.22</v>
+      </c>
+      <c r="I159">
+        <v>0.1</v>
+      </c>
+      <c r="J159">
+        <v>3</v>
+      </c>
+      <c r="K159">
+        <f t="shared" si="1"/>
+        <v>-3.2199999999999998</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="C160">
+        <v>-3.1799999999999997</v>
+      </c>
+      <c r="D160">
+        <v>-0.38</v>
+      </c>
+      <c r="H160">
+        <v>-6.18</v>
+      </c>
+      <c r="I160">
+        <v>-0.38</v>
+      </c>
+      <c r="J160">
+        <v>3</v>
+      </c>
+      <c r="K160">
+        <f t="shared" si="1"/>
+        <v>-3.1799999999999997</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="C161">
+        <v>-3.2199999999999998</v>
+      </c>
+      <c r="D161">
+        <v>-0.82</v>
+      </c>
+      <c r="H161">
+        <v>-6.22</v>
+      </c>
+      <c r="I161">
+        <v>-0.82</v>
+      </c>
+      <c r="J161">
+        <v>3</v>
+      </c>
+      <c r="K161">
+        <f t="shared" si="1"/>
+        <v>-3.2199999999999998</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="C162">
+        <v>-3.3099999999999996</v>
+      </c>
+      <c r="D162">
+        <v>-1.28</v>
+      </c>
+      <c r="H162">
+        <v>-6.31</v>
+      </c>
+      <c r="I162">
+        <v>-1.28</v>
+      </c>
+      <c r="J162">
+        <v>3</v>
+      </c>
+      <c r="K162">
+        <f t="shared" si="1"/>
+        <v>-3.3099999999999996</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="C163">
+        <v>-3.13</v>
+      </c>
+      <c r="D163">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="H163">
+        <v>-6.13</v>
+      </c>
+      <c r="I163">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="J163">
+        <v>3</v>
+      </c>
+      <c r="K163">
+        <f t="shared" si="1"/>
+        <v>-3.13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="C164">
+        <v>-2.8099999999999996</v>
+      </c>
+      <c r="D164">
+        <v>-1.35</v>
+      </c>
+      <c r="H164">
+        <v>-5.81</v>
+      </c>
+      <c r="I164">
+        <v>-1.35</v>
+      </c>
+      <c r="J164">
+        <v>3</v>
+      </c>
+      <c r="K164">
+        <f t="shared" si="1"/>
+        <v>-2.8099999999999996</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="C165">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="D165">
+        <v>-1.27</v>
+      </c>
+      <c r="H165">
+        <v>-5.51</v>
+      </c>
+      <c r="I165">
+        <v>-1.27</v>
+      </c>
+      <c r="J165">
+        <v>3</v>
+      </c>
+      <c r="K165">
+        <f t="shared" si="1"/>
+        <v>-2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="C166">
+        <v>-2.3099999999999996</v>
+      </c>
+      <c r="D166">
+        <v>-1.44</v>
+      </c>
+      <c r="H166">
+        <v>-5.31</v>
+      </c>
+      <c r="I166">
+        <v>-1.44</v>
+      </c>
+      <c r="J166">
+        <v>3</v>
+      </c>
+      <c r="K166">
+        <f t="shared" si="1"/>
+        <v>-2.3099999999999996</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="C1:D1048576">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E55CFA17-D032-4FD8-8F99-16D2B0D543F0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X1:X15">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BDD3A634-6811-4A96-980D-48A0698DF5FB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H152:I166">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -6802,7 +7439,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E55CFA17-D032-4FD8-8F99-16D2B0D543F0}</x14:id>
+          <x14:id>{BED90FF9-A53E-4240-969F-A46E8D2D4D7A}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6826,6 +7463,32 @@
           </x14:cfRule>
           <xm:sqref>C1:D1048576</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BDD3A634-6811-4A96-980D-48A0698DF5FB}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>X1:X15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BED90FF9-A53E-4240-969F-A46E8D2D4D7A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H152:I166</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
